--- a/M2/BorderOfLIFE感想.xlsx
+++ b/M2/BorderOfLIFE感想.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Imaoka/Documents/git/graduation_thesis/M2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2616CCD-0FCD-9747-BCC9-7065FADC6FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235BA8E2-0505-0143-9B64-3E3192B7061E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="680" windowWidth="25000" windowHeight="15000" activeTab="1" xr2:uid="{DCC7AD3A-5C9A-5547-85F2-16FB327C7806}"/>
   </bookViews>
